--- a/LMADefs-SATIMGE.xlsx
+++ b/LMADefs-SATIMGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DA492-2E89-495E-8643-6CD2076D3F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A0C348-C708-4234-9680-C238AF282A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5262" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5275" uniqueCount="1081">
   <si>
     <t>Unit</t>
   </si>
@@ -3472,6 +3472,9 @@
   </si>
   <si>
     <t>Biomass</t>
+  </si>
+  <si>
+    <t>IMP,MIN,REF,GTL,CTL,</t>
   </si>
 </sst>
 </file>
@@ -29014,8 +29017,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29192,9 +29195,8 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="str">
-        <f>'PSet_MAP coarse'!F15</f>
-        <v>IMP,MIN,</v>
+      <c r="C7" t="s">
+        <v>1080</v>
       </c>
       <c r="H7" t="s">
         <v>1077</v>
@@ -29277,10 +29279,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H11" t="s">
-        <v>1078</v>
+        <v>1046</v>
       </c>
       <c r="I11" s="2"/>
       <c r="K11" t="s">
@@ -29298,10 +29300,10 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="H12" t="s">
-        <v>1078</v>
+        <v>1046</v>
       </c>
       <c r="K12" t="s">
         <v>39</v>
@@ -29310,6 +29312,47 @@
         <v>1043</v>
       </c>
       <c r="Q12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -29629,7 +29672,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/LMADefs-SATIMGE.xlsx
+++ b/LMADefs-SATIMGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A0C348-C708-4234-9680-C238AF282A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CDD5D8-7637-4A4A-AEBF-4CC835F0E39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
   </bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5275" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5267" uniqueCount="1081">
   <si>
     <t>Unit</t>
   </si>
@@ -29015,10 +29015,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB7CB0-10A4-4243-B0C4-E7A691753461}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H12"/>
+      <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29152,40 +29152,25 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="H6" t="s">
         <v>175</v>
       </c>
+      <c r="I6" s="2"/>
       <c r="K6" t="s">
         <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="Q6" t="s">
         <v>84</v>
@@ -29193,20 +29178,19 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="H7" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>175</v>
+      </c>
       <c r="K7" t="s">
         <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="Q7" t="s">
         <v>84</v>
@@ -29214,23 +29198,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="str">
-        <f>'PSet_MAP coarse'!F13</f>
-        <v>AGR,COM,IND,RES,TRA,REF,CTL,GTL,HGN,EXP,PWR,</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1077</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -29238,10 +29206,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
       <c r="H9" t="s">
-        <v>1068</v>
+        <v>1077</v>
       </c>
       <c r="I9" s="2"/>
       <c r="K9" t="s">
@@ -29258,11 +29226,12 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>1072</v>
+      <c r="C10" t="str">
+        <f>'PSet_MAP coarse'!F13</f>
+        <v>AGR,COM,IND,RES,TRA,REF,CTL,GTL,HGN,EXP,PWR,</v>
       </c>
       <c r="H10" t="s">
-        <v>1068</v>
+        <v>1077</v>
       </c>
       <c r="K10" t="s">
         <v>39</v>
@@ -29276,40 +29245,25 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="K11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" t="s">
-        <v>1040</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>1044</v>
+        <v>1071</v>
       </c>
       <c r="H12" t="s">
-        <v>1046</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="K12" t="s">
         <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="Q12" t="s">
         <v>84</v>
@@ -29317,20 +29271,19 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="H13" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>1068</v>
+      </c>
       <c r="K13" t="s">
         <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="Q13" t="s">
         <v>84</v>
@@ -29338,26 +29291,52 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>1060</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H16" t="s">
         <v>1078</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K16" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N16" t="s">
         <v>1043</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="9:9">
-      <c r="I19" s="2"/>
+    <row r="21" spans="9:9">
+      <c r="I21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29372,7 +29351,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/LMADefs-SATIMGE.xlsx
+++ b/LMADefs-SATIMGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10175A5-6F66-4AA7-91B0-1FB32A1ED234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7215E8FC-905E-4FBC-AD00-60BA5F5142AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1725" yWindow="-20040" windowWidth="16815" windowHeight="15240" firstSheet="9" activeTab="13" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
+    <workbookView xWindow="-3180" yWindow="-17685" windowWidth="25800" windowHeight="15240" firstSheet="2" activeTab="3" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5233" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5234" uniqueCount="1075">
   <si>
     <t>Unit</t>
   </si>
@@ -3387,70 +3387,76 @@
     <t>Nuclear</t>
   </si>
   <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
+    <t>CO2pKwh</t>
+  </si>
+  <si>
+    <t>ELE,CHP</t>
+  </si>
+  <si>
+    <t>CO2C</t>
+  </si>
+  <si>
+    <t>Emissions_Elec</t>
+  </si>
+  <si>
+    <t>kton/PJ</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>p = combine on process</t>
+  </si>
+  <si>
+    <t>SATIMGE_Veda</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>PJe</t>
+  </si>
+  <si>
+    <t>kg/kWh</t>
+  </si>
+  <si>
+    <t>AGR,COM,IND,RES,TRA,HGN,EXP,UAL</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>EnergyIndustries</t>
+  </si>
+  <si>
+    <t>kton</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>kwh</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>RenewableResource</t>
+  </si>
+  <si>
     <t>Wind,Solar,Hydro</t>
   </si>
   <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>IMP,MIN,REF,GTL,CTL,</t>
-  </si>
-  <si>
-    <t>Vintage</t>
-  </si>
-  <si>
-    <t>CO2pKwh</t>
-  </si>
-  <si>
-    <t>ELE,CHP</t>
-  </si>
-  <si>
-    <t>CO2C</t>
-  </si>
-  <si>
-    <t>Emissions_Elec</t>
-  </si>
-  <si>
-    <t>kton/PJ</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>p = combine on process</t>
-  </si>
-  <si>
-    <t>SATIMGE_Veda</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>PJe</t>
-  </si>
-  <si>
-    <t>kg/kWh</t>
-  </si>
-  <si>
     <t>NaturalGas,Coal,OilProducts,Nuclear,Biomass,CrudeOil</t>
   </si>
   <si>
-    <t>AGR,COM,IND,RES,TRA,HGN,EXP,UAL</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>EnergyIndustries</t>
-  </si>
-  <si>
-    <t>kton</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>kwh</t>
+    <t>IMP,MIN,REF,GTL,CTL,RER</t>
   </si>
 </sst>
 </file>
@@ -3617,12 +3623,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Date" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -28539,7 +28544,7 @@
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8:M8"/>
     </sheetView>
   </sheetViews>
@@ -28578,7 +28583,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -28602,13 +28607,13 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B4" t="s">
         <v>1062</v>
       </c>
-      <c r="B4" t="s">
-        <v>1064</v>
-      </c>
       <c r="C4" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D4">
         <f>1/3.6</f>
@@ -28617,26 +28622,26 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D5" s="4">
+        <v>1063</v>
+      </c>
+      <c r="D5">
         <f>M5/O6</f>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="L5" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="M5" s="3">
         <v>1000000</v>
       </c>
       <c r="N5" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -28648,14 +28653,14 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="N6" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="O6">
         <f>M6*1000000000</f>
         <v>277777777.77777779</v>
       </c>
       <c r="P6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -28711,7 +28716,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -28804,19 +28809,19 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I5" t="s">
         <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="L5" t="s">
         <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>
@@ -28830,7 +28835,7 @@
         <v>175</v>
       </c>
       <c r="L6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="O6" t="s">
         <v>176</v>
@@ -29073,8 +29078,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29086,7 +29091,7 @@
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
@@ -29168,7 +29173,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="str">
-        <f>'PSet_MAP coarse'!A16</f>
+        <f>'PSet_MAP coarse'!A17</f>
         <v>Edist_All</v>
       </c>
       <c r="H3" t="s">
@@ -29190,7 +29195,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="H4" t="s">
         <v>1022</v>
@@ -29261,10 +29266,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>1053</v>
+        <v>1074</v>
       </c>
       <c r="H9" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="I9" s="2"/>
       <c r="K9" t="s">
@@ -29309,10 +29314,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>1038</v>
+        <v>1070</v>
       </c>
       <c r="H12" t="s">
-        <v>1051</v>
+        <v>1072</v>
       </c>
       <c r="I12" s="2"/>
       <c r="K12" t="s">
@@ -29332,8 +29337,9 @@
       <c r="C13" t="s">
         <v>1036</v>
       </c>
-      <c r="H13" t="s">
-        <v>1051</v>
+      <c r="H13" t="str">
+        <f>H12</f>
+        <v>Wind,Solar,Hydro</v>
       </c>
       <c r="K13" t="s">
         <v>39</v>
@@ -29358,10 +29364,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29398,7 +29404,7 @@
         <v>1028</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B16" si="0">INDEX($T$2:$T$15,MATCH(LEFT(A3,3),$S$2:$S$15,0))</f>
+        <f t="shared" ref="B3:B15" si="0">INDEX($T$2:$T$15,MATCH(LEFT(A3,3),$S$2:$S$15,0))</f>
         <v>Industry</v>
       </c>
       <c r="F3" t="str">
@@ -29643,19 +29649,27 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>ElectricitySector</v>
+        <v>1070</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1069</v>
+        <v>1020</v>
+      </c>
+      <c r="B17" t="str">
+        <f>INDEX($T$2:$T$15,MATCH(LEFT(A17,3),$S$2:$S$15,0))</f>
+        <v>ElectricitySector</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -29790,10 +29804,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -29850,7 +29864,7 @@
   <sheetData>
     <row r="1" spans="3:10">
       <c r="J1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="2" spans="3:10">
@@ -29886,19 +29900,19 @@
     </row>
     <row r="4" spans="3:10">
       <c r="C4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D4" t="s">
         <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I4" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="J4" t="s">
         <v>77</v>

--- a/LMADefs-SATIMGE.xlsx
+++ b/LMADefs-SATIMGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD2511-C098-4C1E-AF5D-E0E62BC1EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AC6395-98E1-4AC4-B0B5-8678CC93B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3195" yWindow="-18390" windowWidth="28350" windowHeight="15150" firstSheet="1" activeTab="3" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
+    <workbookView xWindow="-3045" yWindow="-20175" windowWidth="28350" windowHeight="15150" firstSheet="1" activeTab="3" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -3735,16 +3735,16 @@
     <t>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,RMRefrigeration,RMSpace Heating,RMWater Heating,RHCooking,RHLighting,RHOther,RHRefrigeration,RHSpace Heating,RHWater Heating,</t>
   </si>
   <si>
-    <t>~TS_Defs: snk_attr=Sankey_ResDetV0</t>
-  </si>
-  <si>
     <t>Cooking,Lighting,Other,Refrigeration,Space Heating,Water Heating,</t>
   </si>
   <si>
-    <t>TS_Defs: snk_attr=Sankey_ResDetV1</t>
-  </si>
-  <si>
-    <t>~TS_Defs: snk_attr=Sankey_ResDetV2</t>
+    <t>TS_Defs: snk_attr=Sankey_ResDetV0</t>
+  </si>
+  <si>
+    <t>~TS_Defs: snk_attr=Sankey_ResDetV1</t>
+  </si>
+  <si>
+    <t>TS_Defs: snk_attr=Sankey_ResDetV2</t>
   </si>
 </sst>
 </file>
@@ -29367,7 +29367,7 @@
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29641,7 +29641,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -29727,7 +29727,7 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H21" t="s">
         <v>1079</v>
@@ -29773,7 +29773,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H24" t="s">
         <v>1080</v>
@@ -29876,7 +29876,7 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H32" t="s">
         <v>1079</v>
@@ -29922,7 +29922,7 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H35" t="s">
         <v>1080</v>
@@ -29947,7 +29947,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H37" t="s">
         <v>1093</v>

--- a/LMADefs-SATIMGE.xlsx
+++ b/LMADefs-SATIMGE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AC6395-98E1-4AC4-B0B5-8678CC93B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E36E12-1009-46B0-92CB-DE10352305BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3045" yWindow="-20175" windowWidth="28350" windowHeight="15150" firstSheet="1" activeTab="3" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
     <sheet name="TS_Defs" sheetId="27" r:id="rId2"/>
     <sheet name="TS_Defs_Old" sheetId="70" r:id="rId3"/>
-    <sheet name="TS_Defs_Sankey" sheetId="71" r:id="rId4"/>
+    <sheet name="Sankey_def" sheetId="71" r:id="rId4"/>
     <sheet name="PSet_MAP coarse" sheetId="57" r:id="rId5"/>
     <sheet name="CSET_MAP" sheetId="66" r:id="rId6"/>
     <sheet name="TS ratios" sheetId="68" r:id="rId7"/>
@@ -29,9 +29,9 @@
     <sheet name="UnitConv" sheetId="59" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sankey_def!$A$2:$N$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS_Defs!$A$2:$O$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TS_Defs_Old!$A$2:$N$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TS_Defs_Sankey!$A$2:$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3738,13 +3738,13 @@
     <t>Cooking,Lighting,Other,Refrigeration,Space Heating,Water Heating,</t>
   </si>
   <si>
-    <t>TS_Defs: snk_attr=Sankey_ResDetV0</t>
-  </si>
-  <si>
     <t>~TS_Defs: snk_attr=Sankey_ResDetV1</t>
   </si>
   <si>
     <t>TS_Defs: snk_attr=Sankey_ResDetV2</t>
+  </si>
+  <si>
+    <t>~TS_Defs: snk_attr=Sankey_Test</t>
   </si>
 </sst>
 </file>
@@ -29366,15 +29366,15 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96" customWidth="1"/>
+    <col min="3" max="3" width="78.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -29463,7 +29463,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>1018</v>
       </c>
       <c r="H3" t="s">
         <v>1067</v>
@@ -29641,7 +29641,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -29790,7 +29790,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -29964,7 +29964,7 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="43" spans="1:19">

--- a/LMADefs-SATIMGE.xlsx
+++ b/LMADefs-SATIMGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\Workooks for VEDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26849F52-0F69-4CE6-8D38-AED857F10C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFF935E-C0F1-4F48-AF3C-2F7FC7469A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="-18525" windowWidth="28695" windowHeight="15600" firstSheet="1" activeTab="3" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -34,18 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS_Defs!$A$2:$O$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TS_Defs_Old!$A$2:$N$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -432,12 +421,63 @@
         </r>
       </text>
     </comment>
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{7158817D-962F-41B1-9F6C-927F7BAF6810}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3/20/2013
+to use as weight for aggregating over commodities or TS (or process?)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{BCA3E373-85D0-48BF-A6E9-829E0752AF7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+6/4/2011
+These sets should not have common elements</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="363">
   <si>
     <t>Unit</t>
   </si>
@@ -1505,6 +1545,27 @@
   </si>
   <si>
     <t>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,Iron_Steel,Mining,PNFMetals,NMMProducts,IndOther,PGM,Pulp_Paper,</t>
+  </si>
+  <si>
+    <t>~TS_Defs: snk_attr=Sankey_Industry_Other</t>
+  </si>
+  <si>
+    <t>Industry,HydrogenSector,FuelSupply,Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,Iron_Steel,Mining,PNFMetals,NMMProducts,IndOther,PGM,Pulp_Paper,ProcessHeat,PumpsFansCompressors,Lighting,Space Heating,Other,IndTransport,Cooling</t>
+  </si>
+  <si>
+    <t>ProcessHeat,PumpsFansCompressors,Lighting,Space Heating,Other,IndTransport,Cooling</t>
+  </si>
+  <si>
+    <t>Lighting dem,Other dem,Space Heating dem,Electricity Heating dem,PumpsFansCompressors dem,Cooling dem,Process Heating dem,Transport Services</t>
+  </si>
+  <si>
+    <t>Industry,HydrogenSector,FuelSupply,Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,Iron_Steel,Mining,PNFMetals,NMMProducts,IndOther,PGM,Pulp_Paper</t>
+  </si>
+  <si>
+    <t>Hydrogen,NaturalGas,Coal,OilProducts,Biomass,Lighting dem,Other dem,Space Heating dem,Electricity Heating dem,PumpsFansCompressors dem,Cooling dem,Process Heating dem,Transport Services</t>
+  </si>
+  <si>
+    <t>ElectricityDist,Hydrogen,NaturalGas,Coal,OilProducts,Biomass</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1577,7 @@
     <numFmt numFmtId="165" formatCode="#.00"/>
     <numFmt numFmtId="166" formatCode="#."/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1619,6 +1680,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1671,11 +1752,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Date" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2000,7 +2085,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3579,7 +3664,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C57" sqref="C57:D68"/>
     </sheetView>
   </sheetViews>
@@ -5032,10 +5117,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB7CB0-10A4-4243-B0C4-E7A691753461}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59:S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5928,16 +6013,364 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
-      <c r="K59" t="s">
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="5" customFormat="1">
+      <c r="A66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" t="s">
+        <v>270</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N59" t="s">
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="1:20" s="5" customFormat="1">
+      <c r="A67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" t="s">
+        <v>270</v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="1:20" s="5" customFormat="1">
+      <c r="A68" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="1:20" s="5" customFormat="1">
+      <c r="A69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" t="s">
+        <v>362</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" t="s">
+        <v>361</v>
+      </c>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="1:20" s="5" customFormat="1">
+      <c r="A71" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>358</v>
+      </c>
+      <c r="H72" t="s">
+        <v>359</v>
+      </c>
+      <c r="K72" t="s">
+        <v>39</v>
+      </c>
+      <c r="N72" t="s">
         <v>288</v>
       </c>
-      <c r="R59" t="s">
+      <c r="R72" t="s">
         <v>84</v>
       </c>
+    </row>
+    <row r="73" spans="1:20" s="5" customFormat="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+    </row>
+    <row r="74" spans="1:20" s="5" customFormat="1">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="1:20" s="5" customFormat="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="1:20" s="5" customFormat="1">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5951,7 +6384,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -6811,7 +7244,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/LMADefs-SATIMGE.xlsx
+++ b/LMADefs-SATIMGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61352CF5-225E-4DE4-9D5B-6E3E9C4C57E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F339F01C-37C0-484B-890C-074FC6975789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="-19785" windowWidth="36795" windowHeight="18975" activeTab="5" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
+    <workbookView xWindow="3750" yWindow="-20460" windowWidth="36795" windowHeight="18975" activeTab="5" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{A5ECB8CC-CD6F-499A-A1D7-93A3BDBFAA50}">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{62537845-66A6-4D8C-B3A1-9A046A8CA505}">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{D6363A1F-9BDB-488E-B234-38CF7FA402CF}">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{445F8CF5-3A4D-4075-9908-84C9DF937938}">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{A7B70FA1-5434-44FE-A332-8CDFCC5A5BDD}">
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{A5ECB8CC-CD6F-499A-A1D7-93A3BDBFAA50}">
       <text>
         <r>
           <rPr>
@@ -307,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{7E9D6C69-9D62-4A25-960B-236DF41B9090}">
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{D6363A1F-9BDB-488E-B234-38CF7FA402CF}">
       <text>
         <r>
           <rPr>
@@ -332,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{DD15C1FF-CD8E-46EF-9A99-914C195EDD78}">
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{A7B70FA1-5434-44FE-A332-8CDFCC5A5BDD}">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{7A8CFEAD-7F5A-4779-9018-F5A631A15227}">
+    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{7E9D6C69-9D62-4A25-960B-236DF41B9090}">
       <text>
         <r>
           <rPr>
@@ -383,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{B2D25FD8-3EC7-4AAD-8AAF-A3F86EDCF964}">
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{DD15C1FF-CD8E-46EF-9A99-914C195EDD78}">
       <text>
         <r>
           <rPr>
@@ -409,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{DEF7D36A-92CA-4F0C-B865-CB302FF8967E}">
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{7A8CFEAD-7F5A-4779-9018-F5A631A15227}">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{7158817D-962F-41B1-9F6C-927F7BAF6810}">
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{B2D25FD8-3EC7-4AAD-8AAF-A3F86EDCF964}">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{BCA3E373-85D0-48BF-A6E9-829E0752AF7E}">
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{DEF7D36A-92CA-4F0C-B865-CB302FF8967E}">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0" shapeId="0" xr:uid="{211CA960-DA95-4DBD-A97C-63B21E456AC2}">
+    <comment ref="B80" authorId="0" shapeId="0" xr:uid="{7158817D-962F-41B1-9F6C-927F7BAF6810}">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C75" authorId="0" shapeId="0" xr:uid="{54A2A3CA-C10A-42E6-991E-56B1B08DC649}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{BCA3E373-85D0-48BF-A6E9-829E0752AF7E}">
       <text>
         <r>
           <rPr>
@@ -536,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="0" shapeId="0" xr:uid="{24D4D8DF-98D1-4BAC-8D2B-938884DFB9F2}">
+    <comment ref="B92" authorId="0" shapeId="0" xr:uid="{211CA960-DA95-4DBD-A97C-63B21E456AC2}">
       <text>
         <r>
           <rPr>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C85" authorId="0" shapeId="0" xr:uid="{D7552AA6-0D20-4B33-8839-E3DCA2B296CA}">
+    <comment ref="C92" authorId="0" shapeId="0" xr:uid="{54A2A3CA-C10A-42E6-991E-56B1B08DC649}">
       <text>
         <r>
           <rPr>
@@ -587,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B94" authorId="0" shapeId="0" xr:uid="{D91293CA-572A-4696-8866-215E332217DA}">
+    <comment ref="B102" authorId="0" shapeId="0" xr:uid="{24D4D8DF-98D1-4BAC-8D2B-938884DFB9F2}">
       <text>
         <r>
           <rPr>
@@ -613,7 +613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C94" authorId="0" shapeId="0" xr:uid="{F62D72FB-151E-4E74-B3DF-FAC4D8192C7C}">
+    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{D7552AA6-0D20-4B33-8839-E3DCA2B296CA}">
       <text>
         <r>
           <rPr>
@@ -638,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B106" authorId="0" shapeId="0" xr:uid="{25D6EC93-4A0F-4F3F-875F-94CA46E7C8F6}">
+    <comment ref="B111" authorId="0" shapeId="0" xr:uid="{D91293CA-572A-4696-8866-215E332217DA}">
       <text>
         <r>
           <rPr>
@@ -664,7 +664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C106" authorId="0" shapeId="0" xr:uid="{2B143ED7-63EC-4B70-A051-F63CF2255024}">
+    <comment ref="C111" authorId="0" shapeId="0" xr:uid="{F62D72FB-151E-4E74-B3DF-FAC4D8192C7C}">
       <text>
         <r>
           <rPr>
@@ -689,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B119" authorId="0" shapeId="0" xr:uid="{D1CC1CC5-7B8F-4DD5-91C7-E6691792D215}">
+    <comment ref="B123" authorId="0" shapeId="0" xr:uid="{25D6EC93-4A0F-4F3F-875F-94CA46E7C8F6}">
       <text>
         <r>
           <rPr>
@@ -715,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C119" authorId="0" shapeId="0" xr:uid="{B04BACCC-3ED2-445F-A1CE-D4A714ED488B}">
+    <comment ref="C123" authorId="0" shapeId="0" xr:uid="{2B143ED7-63EC-4B70-A051-F63CF2255024}">
       <text>
         <r>
           <rPr>
@@ -740,7 +740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B132" authorId="0" shapeId="0" xr:uid="{EF71A536-1445-4F04-B751-D1D1142008E3}">
+    <comment ref="B136" authorId="0" shapeId="0" xr:uid="{D1CC1CC5-7B8F-4DD5-91C7-E6691792D215}">
       <text>
         <r>
           <rPr>
@@ -766,7 +766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C132" authorId="0" shapeId="0" xr:uid="{962EE049-33FB-4668-9E71-006CBE6662CF}">
+    <comment ref="C136" authorId="0" shapeId="0" xr:uid="{B04BACCC-3ED2-445F-A1CE-D4A714ED488B}">
       <text>
         <r>
           <rPr>
@@ -791,7 +791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B146" authorId="0" shapeId="0" xr:uid="{4BBE0440-6530-4FF6-96EA-DF726D0A8483}">
+    <comment ref="B149" authorId="0" shapeId="0" xr:uid="{EF71A536-1445-4F04-B751-D1D1142008E3}">
       <text>
         <r>
           <rPr>
@@ -817,7 +817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C146" authorId="0" shapeId="0" xr:uid="{FB76502D-B501-4266-B8DB-E8514D7B0FE7}">
+    <comment ref="C149" authorId="0" shapeId="0" xr:uid="{962EE049-33FB-4668-9E71-006CBE6662CF}">
       <text>
         <r>
           <rPr>
@@ -842,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B160" authorId="0" shapeId="0" xr:uid="{4FB38B63-3F98-4CA3-9277-A842D8AF0996}">
+    <comment ref="B163" authorId="0" shapeId="0" xr:uid="{4BBE0440-6530-4FF6-96EA-DF726D0A8483}">
       <text>
         <r>
           <rPr>
@@ -868,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C160" authorId="0" shapeId="0" xr:uid="{3130F6A3-8DE1-4986-A303-28AB951E7C25}">
+    <comment ref="C163" authorId="0" shapeId="0" xr:uid="{FB76502D-B501-4266-B8DB-E8514D7B0FE7}">
       <text>
         <r>
           <rPr>
@@ -893,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B173" authorId="0" shapeId="0" xr:uid="{01F9A8E2-1789-44B3-A055-E94310C787B0}">
+    <comment ref="B177" authorId="0" shapeId="0" xr:uid="{4FB38B63-3F98-4CA3-9277-A842D8AF0996}">
       <text>
         <r>
           <rPr>
@@ -919,7 +919,58 @@
         </r>
       </text>
     </comment>
-    <comment ref="C173" authorId="0" shapeId="0" xr:uid="{AD79B7BD-8664-43A9-84E7-CCB304D75A52}">
+    <comment ref="C177" authorId="0" shapeId="0" xr:uid="{3130F6A3-8DE1-4986-A303-28AB951E7C25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+6/4/2011
+These sets should not have common elements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B190" authorId="0" shapeId="0" xr:uid="{01F9A8E2-1789-44B3-A055-E94310C787B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3/20/2013
+to use as weight for aggregating over commodities or TS (or process?)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C190" authorId="0" shapeId="0" xr:uid="{AD79B7BD-8664-43A9-84E7-CCB304D75A52}">
       <text>
         <r>
           <rPr>
@@ -949,7 +1000,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="540">
   <si>
     <t>Unit</t>
   </si>
@@ -1761,9 +1812,6 @@
     <t>Industry,Transport</t>
   </si>
   <si>
-    <t>~TS_Defs: snk_attr=Sankey_all</t>
-  </si>
-  <si>
     <t>Agriculture,Commerce,Industry,Residential,Transport,CrudeRefineries,Synfuels,HydrogenSector,Exports,ElectricitySector</t>
   </si>
   <si>
@@ -2514,9 +2562,6 @@
     <t>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,Iron_Steel,Mining,PNFMetals,NMMProducts,IndOther,PGM,Pulp_Paper</t>
   </si>
   <si>
-    <t>TS_Defs: snk_attr=Sankey_Transport</t>
-  </si>
-  <si>
     <t>~TS_Defs: snk_attr=Sankey_Industry</t>
   </si>
   <si>
@@ -2532,9 +2577,6 @@
     <t>IND_Grid</t>
   </si>
   <si>
-    <t>IND_ElecDist,ElecGenDist,CHP</t>
-  </si>
-  <si>
     <t>Heating-Cooling</t>
   </si>
   <si>
@@ -2547,10 +2589,37 @@
     <t>Agriculture,Commerce,Industry,Residential,Transport,Refineries,HydrogenSector,Exports</t>
   </si>
   <si>
-    <t>Heating-Cooling,Mechanical,Lighting-Other,Exports</t>
-  </si>
-  <si>
-    <t>FinalEnergy-Exports</t>
+    <t>Heating-Cooling,Mechanical,Lighting-Other</t>
+  </si>
+  <si>
+    <t>Agriculture,Commerce,Industry,Residential,Transport,Refineries,HydrogenSector</t>
+  </si>
+  <si>
+    <t>~TS_Defs: snk_attr=Sankey_all_Loops</t>
+  </si>
+  <si>
+    <t>Agriculture,Commerce,Industry,Residential,Transport,CrudeRefineries,Synfuels,HydrogenSector,Exports</t>
+  </si>
+  <si>
+    <t>Agriculture,Commerce,Industry,Residential,Transport</t>
+  </si>
+  <si>
+    <t>NaturalGas,Coal</t>
+  </si>
+  <si>
+    <t>~TS_Defs: snk_attr=Sankey_Transport</t>
+  </si>
+  <si>
+    <t>IND_ElecGenDist,CHP</t>
+  </si>
+  <si>
+    <t>TS_Defs: snk_attr=Sankey_all</t>
+  </si>
+  <si>
+    <t>IND_ElecDist,IND_ElecGenDist,CHP</t>
+  </si>
+  <si>
+    <t>IND_ElecGenDist</t>
   </si>
 </sst>
 </file>
@@ -4889,7 +4958,7 @@
         <v>FuelSupply</v>
       </c>
       <c r="D19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4952,10 +5021,10 @@
         <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4963,10 +5032,10 @@
         <v>216</v>
       </c>
       <c r="C26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4985,10 +5054,10 @@
         <v>216</v>
       </c>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5018,10 +5087,10 @@
         <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5029,10 +5098,10 @@
         <v>216</v>
       </c>
       <c r="C32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5062,10 +5131,10 @@
         <v>216</v>
       </c>
       <c r="C35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5073,10 +5142,10 @@
         <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5084,10 +5153,10 @@
         <v>216</v>
       </c>
       <c r="C37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5095,10 +5164,10 @@
         <v>216</v>
       </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5106,10 +5175,10 @@
         <v>216</v>
       </c>
       <c r="C39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5139,10 +5208,10 @@
         <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5205,10 +5274,10 @@
         <v>216</v>
       </c>
       <c r="C48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5249,10 +5318,10 @@
         <v>216</v>
       </c>
       <c r="C52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5301,7 +5370,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
@@ -5312,7 +5381,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C58" t="s">
         <v>76</v>
@@ -5323,18 +5392,18 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C60" t="s">
         <v>178</v>
@@ -5345,7 +5414,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C61" t="s">
         <v>183</v>
@@ -5356,7 +5425,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C62" t="s">
         <v>182</v>
@@ -5367,7 +5436,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C63" t="s">
         <v>185</v>
@@ -5378,7 +5447,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C64" t="s">
         <v>180</v>
@@ -5389,7 +5458,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C65" t="s">
         <v>181</v>
@@ -5400,7 +5469,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C66" t="s">
         <v>184</v>
@@ -5411,35 +5480,35 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5515,10 +5584,10 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D4" t="s">
         <v>490</v>
-      </c>
-      <c r="D4" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5526,10 +5595,10 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D5" t="s">
         <v>492</v>
-      </c>
-      <c r="D5" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5537,10 +5606,10 @@
         <v>103</v>
       </c>
       <c r="C6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" t="s">
         <v>494</v>
-      </c>
-      <c r="D6" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5548,10 +5617,10 @@
         <v>103</v>
       </c>
       <c r="C7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" t="s">
         <v>496</v>
-      </c>
-      <c r="D7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5559,10 +5628,10 @@
         <v>103</v>
       </c>
       <c r="C8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D8" t="s">
         <v>498</v>
-      </c>
-      <c r="D8" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -6159,10 +6228,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB7CB0-10A4-4243-B0C4-E7A691753461}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:T184"/>
+  <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6193,7 +6262,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -6258,7 +6327,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H3" t="s">
         <v>264</v>
@@ -6279,7 +6348,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H4" t="str">
         <f>H3</f>
@@ -6373,7 +6442,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H10" t="s">
         <v>268</v>
@@ -6444,10 +6513,10 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H15" t="s">
-        <v>533</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
@@ -6464,10 +6533,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H16" t="s">
-        <v>533</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
@@ -6481,7 +6550,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -6533,6 +6602,7 @@
       <c r="P21" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
         <v>48</v>
       </c>
@@ -6545,10 +6615,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I22" s="2"/>
       <c r="K22" t="s">
@@ -6566,10 +6636,11 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>434</v>
-      </c>
-      <c r="H23" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="H23" t="str">
+        <f>H22</f>
+        <v>NaturalGas,Coal,OilProducts,Nuclear,Biomass,CrudeOil</v>
       </c>
       <c r="K23" t="s">
         <v>39</v>
@@ -6591,10 +6662,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H25" t="s">
-        <v>500</v>
+        <v>263</v>
       </c>
       <c r="I25" s="2"/>
       <c r="K25" t="s">
@@ -6612,10 +6683,11 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>434</v>
-      </c>
-      <c r="H26" t="s">
-        <v>500</v>
+        <v>219</v>
+      </c>
+      <c r="H26" t="str">
+        <f>H25</f>
+        <v>Wind,Solar,Hydro</v>
       </c>
       <c r="K26" t="s">
         <v>39</v>
@@ -6637,94 +6709,103 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>434</v>
+        <v>219</v>
       </c>
       <c r="H28" t="s">
-        <v>501</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="I28" s="2"/>
       <c r="K28" t="s">
         <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="R28" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>532</v>
+      </c>
+      <c r="H29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="R29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="R31" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>521</v>
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" t="s">
+        <v>218</v>
+      </c>
+      <c r="R32" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>49</v>
+      <c r="A33" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>533</v>
       </c>
       <c r="H34" t="s">
-        <v>268</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>71</v>
+      </c>
       <c r="K34" t="s">
         <v>39</v>
       </c>
@@ -6740,10 +6821,10 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="H35" t="s">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="K35" t="s">
         <v>39</v>
@@ -6755,130 +6836,128 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" t="s">
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
-        <v>274</v>
-      </c>
-      <c r="H37" t="s">
-        <v>517</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="K37" t="s">
+      <c r="C41" t="s">
+        <v>272</v>
+      </c>
+      <c r="H41" t="s">
+        <v>268</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="K41" t="s">
         <v>39</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N41" t="s">
         <v>217</v>
       </c>
-      <c r="R37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" t="s">
-        <v>516</v>
-      </c>
-      <c r="H38" t="s">
-        <v>517</v>
-      </c>
-      <c r="K38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N38" t="s">
-        <v>218</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="R41" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>502</v>
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>433</v>
+      </c>
+      <c r="H42" t="s">
+        <v>268</v>
+      </c>
+      <c r="K42" t="s">
+        <v>39</v>
+      </c>
+      <c r="N42" t="s">
+        <v>218</v>
+      </c>
+      <c r="R42" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>49</v>
+      <c r="A43" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>433</v>
       </c>
       <c r="H44" t="s">
-        <v>312</v>
-      </c>
-      <c r="I44" s="2"/>
+        <v>499</v>
+      </c>
       <c r="K44" t="s">
         <v>39</v>
       </c>
       <c r="N44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R44" t="s">
         <v>84</v>
@@ -6886,1089 +6965,900 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>516</v>
-      </c>
-      <c r="H45" t="s">
-        <v>312</v>
-      </c>
-      <c r="K45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N45" t="s">
-        <v>218</v>
-      </c>
-      <c r="R45" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>433</v>
+      </c>
+      <c r="H46" t="s">
+        <v>500</v>
+      </c>
+      <c r="K46" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" t="s">
+        <v>282</v>
+      </c>
+      <c r="R46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>515</v>
+      </c>
+      <c r="H52" t="s">
+        <v>268</v>
+      </c>
+      <c r="K52" t="s">
+        <v>39</v>
+      </c>
+      <c r="N52" t="s">
+        <v>218</v>
+      </c>
+      <c r="R52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>274</v>
-      </c>
-      <c r="H47" t="s">
-        <v>519</v>
-      </c>
-      <c r="I47" s="2"/>
-      <c r="K47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N47" t="s">
-        <v>217</v>
-      </c>
-      <c r="R47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48" t="s">
+    <row r="54" spans="1:19">
+      <c r="A54" t="s">
         <v>26</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C54" t="s">
+        <v>515</v>
+      </c>
+      <c r="H54" t="s">
         <v>516</v>
       </c>
-      <c r="H48" t="s">
-        <v>519</v>
-      </c>
-      <c r="K48" t="s">
-        <v>39</v>
-      </c>
-      <c r="N48" t="s">
-        <v>218</v>
-      </c>
-      <c r="R48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>527</v>
-      </c>
-      <c r="H54" t="s">
-        <v>268</v>
-      </c>
-      <c r="I54" s="2"/>
       <c r="K54" t="s">
         <v>39</v>
       </c>
       <c r="N54" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q54" t="s">
+        <v>218</v>
+      </c>
+      <c r="R54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
-      <c r="A55" t="s">
+    <row r="58" spans="1:19">
+      <c r="A58" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" t="s">
         <v>26</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C60" t="s">
+        <v>515</v>
+      </c>
+      <c r="H60" t="s">
+        <v>311</v>
+      </c>
+      <c r="K60" t="s">
+        <v>39</v>
+      </c>
+      <c r="N60" t="s">
+        <v>218</v>
+      </c>
+      <c r="R60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>515</v>
+      </c>
+      <c r="H62" t="s">
+        <v>518</v>
+      </c>
+      <c r="K62" t="s">
+        <v>39</v>
+      </c>
+      <c r="N62" t="s">
+        <v>218</v>
+      </c>
+      <c r="R62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" t="s">
         <v>520</v>
       </c>
-      <c r="H55" t="s">
-        <v>268</v>
-      </c>
-      <c r="K55" t="s">
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>536</v>
+      </c>
+      <c r="H68" t="s">
+        <v>534</v>
+      </c>
+      <c r="K68" t="s">
         <v>39</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N68" t="s">
         <v>218</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="Q68" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
-      <c r="A56" t="s">
+    <row r="69" spans="1:19">
+      <c r="A69" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>523</v>
-      </c>
-      <c r="H57" t="s">
-        <v>340</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="K57" t="s">
-        <v>39</v>
-      </c>
-      <c r="N57" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" t="s">
-        <v>520</v>
-      </c>
-      <c r="H58" t="s">
-        <v>340</v>
-      </c>
-      <c r="K58" t="s">
-        <v>39</v>
-      </c>
-      <c r="N58" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="A62" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="A63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" s="4" customFormat="1">
-      <c r="A64" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" t="s">
-        <v>273</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" t="s">
-        <v>268</v>
-      </c>
-      <c r="I64" s="6"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-    </row>
-    <row r="65" spans="1:20" s="4" customFormat="1">
-      <c r="A65" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" t="s">
-        <v>348</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" t="s">
-        <v>268</v>
-      </c>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-    </row>
-    <row r="66" spans="1:20" s="4" customFormat="1">
-      <c r="A66" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-    </row>
-    <row r="67" spans="1:20" s="4" customFormat="1">
-      <c r="A67" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" t="s">
-        <v>274</v>
-      </c>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67" t="s">
-        <v>340</v>
-      </c>
-      <c r="I67" s="6"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-    </row>
-    <row r="68" spans="1:20">
-      <c r="A68" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" t="s">
-        <v>346</v>
-      </c>
-      <c r="H68" t="s">
-        <v>340</v>
-      </c>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-    </row>
-    <row r="69" spans="1:20" s="4" customFormat="1">
-      <c r="A69" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-    </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:19">
       <c r="A70" t="s">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>347</v>
+        <v>538</v>
       </c>
       <c r="H70" t="s">
-        <v>350</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="I70" s="2"/>
       <c r="K70" t="s">
         <v>39</v>
       </c>
       <c r="N70" t="s">
-        <v>283</v>
-      </c>
-      <c r="R70" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q70" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="4" customFormat="1">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-    </row>
-    <row r="72" spans="1:20" s="4" customFormat="1">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-    </row>
-    <row r="73" spans="1:20" s="4" customFormat="1">
-      <c r="T73" s="5"/>
-    </row>
-    <row r="74" spans="1:20">
+    <row r="71" spans="1:19">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
+        <v>519</v>
+      </c>
+      <c r="H71" t="s">
+        <v>268</v>
+      </c>
+      <c r="K71" t="s">
+        <v>39</v>
+      </c>
+      <c r="N71" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>519</v>
+      </c>
+      <c r="H73" t="s">
+        <v>339</v>
+      </c>
+      <c r="K73" t="s">
+        <v>39</v>
+      </c>
+      <c r="N73" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s">
+        <v>519</v>
+      </c>
+      <c r="H75" t="s">
+        <v>71</v>
+      </c>
+      <c r="K75" t="s">
+        <v>39</v>
+      </c>
+      <c r="N75" t="s">
+        <v>217</v>
+      </c>
+      <c r="R75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>529</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="K76" t="s">
+        <v>39</v>
+      </c>
+      <c r="N76" t="s">
+        <v>218</v>
+      </c>
+      <c r="R76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P75" s="1" t="s">
+      <c r="P80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1" t="s">
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S75" s="1" t="s">
+      <c r="S80" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
-      <c r="A76" s="5" t="s">
+    <row r="81" spans="1:20" s="4" customFormat="1">
+      <c r="A81" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" t="s">
+      <c r="B81" s="5"/>
+      <c r="C81" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" t="s">
+        <v>268</v>
+      </c>
+      <c r="I81" s="6"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="1:20" s="4" customFormat="1">
+      <c r="A82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" t="s">
+        <v>268</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="1:20" s="4" customFormat="1">
+      <c r="A83" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="1:20" s="4" customFormat="1">
+      <c r="A84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" t="s">
         <v>273</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" t="s">
-        <v>268</v>
-      </c>
-      <c r="I76" s="6"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5" t="s">
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84" t="s">
+        <v>339</v>
+      </c>
+      <c r="I84" s="6"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5" t="s">
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5" t="s">
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S76" s="5"/>
-    </row>
-    <row r="77" spans="1:20">
-      <c r="A77" s="5" t="s">
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" t="s">
-        <v>371</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" t="s">
-        <v>268</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5" t="s">
+      <c r="B85" s="5"/>
+      <c r="C85" t="s">
+        <v>345</v>
+      </c>
+      <c r="H85" t="s">
+        <v>339</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5" t="s">
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5" t="s">
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S77" s="5"/>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="5" t="s">
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+    </row>
+    <row r="86" spans="1:20" s="4" customFormat="1">
+      <c r="A86" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="5"/>
-    </row>
-    <row r="79" spans="1:20">
-      <c r="A79" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" t="s">
-        <v>274</v>
-      </c>
-      <c r="H79" t="s">
-        <v>340</v>
-      </c>
-      <c r="I79" s="6"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S79" s="5"/>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="A80" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" t="s">
-        <v>489</v>
-      </c>
-      <c r="H80" t="s">
-        <v>340</v>
-      </c>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S80" s="5"/>
-    </row>
-    <row r="83" spans="1:19">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-    </row>
-    <row r="84" spans="1:19">
-      <c r="A84" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
-      <c r="A85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S85" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
-      <c r="A86" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="B86" s="5"/>
-      <c r="C86" t="s">
-        <v>273</v>
-      </c>
+      <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
-      <c r="H86" t="s">
-        <v>351</v>
-      </c>
-      <c r="I86" s="6"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
-      <c r="N86" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-      <c r="R86" s="5" t="s">
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>346</v>
+      </c>
+      <c r="H87" t="s">
+        <v>349</v>
+      </c>
+      <c r="K87" t="s">
+        <v>39</v>
+      </c>
+      <c r="N87" t="s">
+        <v>282</v>
+      </c>
+      <c r="R87" t="s">
         <v>84</v>
       </c>
-      <c r="S86" s="5"/>
-    </row>
-    <row r="87" spans="1:19">
-      <c r="A87" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="5"/>
-      <c r="C87" t="s">
-        <v>365</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" t="s">
-        <v>351</v>
-      </c>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S87" s="5"/>
-    </row>
-    <row r="88" spans="1:19">
-      <c r="A88" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
+    </row>
+    <row r="88" spans="1:20" s="4" customFormat="1">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
       <c r="S88" s="5"/>
-    </row>
-    <row r="89" spans="1:19">
-      <c r="A89" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="1:20" s="4" customFormat="1">
+      <c r="A89" s="5"/>
       <c r="B89" s="5"/>
-      <c r="C89" t="s">
-        <v>367</v>
-      </c>
-      <c r="H89" t="s">
-        <v>366</v>
-      </c>
-      <c r="I89" s="6"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
-      <c r="R89" s="5" t="s">
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="1:20" s="4" customFormat="1">
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" t="s">
+        <v>268</v>
+      </c>
+      <c r="I93" s="6"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S89" s="5"/>
-    </row>
-    <row r="90" spans="1:19">
-      <c r="A90" s="5" t="s">
+      <c r="S93" s="5"/>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" t="s">
-        <v>368</v>
-      </c>
-      <c r="H90" t="s">
-        <v>366</v>
-      </c>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5" t="s">
+      <c r="B94" s="5"/>
+      <c r="C94" t="s">
+        <v>370</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" t="s">
+        <v>268</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5" t="s">
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5" t="s">
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S90" s="5"/>
-    </row>
-    <row r="91" spans="1:19">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-    </row>
-    <row r="92" spans="1:19">
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:19">
-      <c r="A93" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
-      <c r="A94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S94" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="S94" s="5"/>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="5"/>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" t="s">
+      <c r="B96" s="5"/>
+      <c r="C96" t="s">
         <v>273</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" t="s">
-        <v>268</v>
-      </c>
-      <c r="I95" s="6"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S95" s="5"/>
-    </row>
-    <row r="96" spans="1:19">
-      <c r="A96" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
       <c r="H96" t="s">
-        <v>268</v>
-      </c>
-      <c r="I96" s="5"/>
+        <v>339</v>
+      </c>
+      <c r="I96" s="6"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5" t="s">
         <v>39</v>
@@ -7976,7 +7866,7 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
@@ -7988,227 +7878,246 @@
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" t="s">
+        <v>488</v>
+      </c>
+      <c r="H97" t="s">
+        <v>339</v>
+      </c>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="S97" s="5"/>
     </row>
-    <row r="98" spans="1:19">
-      <c r="A98" s="5" t="s">
+    <row r="100" spans="1:19">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" t="s">
-        <v>413</v>
-      </c>
-      <c r="H98" t="s">
-        <v>423</v>
-      </c>
-      <c r="I98" s="6"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5" t="s">
+      <c r="B103" s="5"/>
+      <c r="C103" t="s">
+        <v>272</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" t="s">
+        <v>350</v>
+      </c>
+      <c r="I103" s="6"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5" t="s">
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5" t="s">
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S98" s="5"/>
-    </row>
-    <row r="99" spans="1:19">
-      <c r="A99" s="5" t="s">
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="H99" t="s">
-        <v>423</v>
-      </c>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5" t="s">
+      <c r="B104" s="5"/>
+      <c r="C104" t="s">
+        <v>364</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" t="s">
+        <v>350</v>
+      </c>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5" t="s">
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S99" s="5"/>
-    </row>
-    <row r="100" spans="1:19">
-      <c r="A100" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
-      <c r="A101" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" t="s">
-        <v>412</v>
-      </c>
-      <c r="H101" t="s">
-        <v>153</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N101" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
-      <c r="A102" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="H102" t="s">
-        <v>153</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N102" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19">
-      <c r="A103" s="5"/>
-    </row>
-    <row r="104" spans="1:19">
-      <c r="A104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
+      <c r="R104" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S104" s="5"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" t="s">
-        <v>507</v>
-      </c>
+      <c r="A105" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="5"/>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" t="s">
+        <v>366</v>
+      </c>
+      <c r="H106" t="s">
+        <v>365</v>
+      </c>
+      <c r="I106" s="6"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S106" s="5"/>
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" t="s">
-        <v>273</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
+        <v>367</v>
+      </c>
       <c r="H107" t="s">
-        <v>268</v>
-      </c>
-      <c r="I107" s="6"/>
+        <v>365</v>
+      </c>
+      <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5" t="s">
         <v>39</v>
@@ -8216,7 +8125,7 @@
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
@@ -8227,139 +8136,148 @@
       <c r="S107" s="5"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A108" s="5"/>
       <c r="B108" s="5"/>
-      <c r="C108" t="s">
-        <v>390</v>
-      </c>
+      <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
-      <c r="H108" t="s">
-        <v>268</v>
-      </c>
+      <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
-      <c r="N108" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
-      <c r="R108" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="R108" s="5"/>
       <c r="S108" s="5"/>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4"/>
-      <c r="S109" s="5"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="5"/>
-      <c r="C110" t="s">
-        <v>274</v>
-      </c>
-      <c r="H110" t="s">
-        <v>340</v>
-      </c>
-      <c r="I110" s="6"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S110" s="5"/>
+      <c r="A110" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B111" s="5"/>
-      <c r="C111" t="s">
-        <v>390</v>
-      </c>
-      <c r="H111" t="s">
-        <v>340</v>
-      </c>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S111" s="5"/>
+      <c r="A111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="5" t="s">
-        <v>148</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" t="s">
+        <v>272</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" t="s">
+        <v>268</v>
+      </c>
+      <c r="I112" s="6"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S112" s="5"/>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" t="s">
-        <v>242</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
       <c r="H113" t="s">
-        <v>153</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
       <c r="K113" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
       <c r="N113" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
@@ -8367,222 +8285,231 @@
       <c r="R113" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="S113" s="5"/>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="5"/>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" t="s">
+        <v>412</v>
+      </c>
+      <c r="H115" t="s">
+        <v>422</v>
+      </c>
+      <c r="I115" s="6"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S115" s="5"/>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C114" t="s">
-        <v>390</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="B116" s="5"/>
+      <c r="C116" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="H116" t="s">
+        <v>422</v>
+      </c>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S116" s="5"/>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>411</v>
+      </c>
+      <c r="H118" t="s">
         <v>153</v>
       </c>
-      <c r="K114" s="5" t="s">
+      <c r="K118" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N114" s="5" t="s">
+      <c r="N118" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="H119" t="s">
+        <v>153</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N119" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5" t="s">
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
-      <c r="A118" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19">
-      <c r="A119" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S119" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="120" spans="1:19">
-      <c r="A120" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="5"/>
-      <c r="C120" t="s">
-        <v>273</v>
-      </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" t="s">
-        <v>268</v>
-      </c>
-      <c r="I120" s="6"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O120" s="5"/>
-      <c r="P120" s="5"/>
-      <c r="Q120" s="5"/>
-      <c r="R120" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S120" s="5"/>
+      <c r="A120" s="5"/>
     </row>
     <row r="121" spans="1:19">
-      <c r="A121" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B121" s="5"/>
-      <c r="C121" t="s">
-        <v>433</v>
-      </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" t="s">
-        <v>268</v>
-      </c>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="A121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
-      <c r="R121" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S121" s="5"/>
+      <c r="R121" s="5"/>
     </row>
     <row r="122" spans="1:19">
-      <c r="A122" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-      <c r="S122" s="5"/>
+      <c r="A122" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" s="5"/>
-      <c r="C123" t="s">
-        <v>417</v>
-      </c>
-      <c r="H123" t="s">
-        <v>419</v>
-      </c>
-      <c r="I123" s="6"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S123" s="5"/>
+      <c r="A123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" t="s">
-        <v>433</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
       <c r="H124" t="s">
-        <v>419</v>
-      </c>
-      <c r="I124" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="I124" s="6"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5" t="s">
         <v>39</v>
@@ -8590,7 +8517,7 @@
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
@@ -8602,47 +8529,80 @@
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="5" t="s">
-        <v>148</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" t="s">
+        <v>389</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" t="s">
+        <v>268</v>
+      </c>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S125" s="5"/>
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" t="s">
-        <v>242</v>
-      </c>
-      <c r="H126" t="s">
-        <v>153</v>
-      </c>
-      <c r="K126" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N126" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="5"/>
     </row>
     <row r="127" spans="1:19">
       <c r="A127" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B127" s="5"/>
       <c r="C127" t="s">
-        <v>433</v>
+        <v>273</v>
       </c>
       <c r="H127" t="s">
-        <v>153</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="I127" s="6"/>
+      <c r="J127" s="5"/>
       <c r="K127" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
       <c r="N127" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O127" s="5"/>
       <c r="P127" s="5"/>
@@ -8650,199 +8610,166 @@
       <c r="R127" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="S127" s="5"/>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" t="s">
+        <v>389</v>
+      </c>
+      <c r="H128" t="s">
+        <v>339</v>
+      </c>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S128" s="5"/>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>242</v>
+      </c>
+      <c r="H130" t="s">
+        <v>153</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N130" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="131" spans="1:19">
-      <c r="A131" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19">
-      <c r="A132" s="1" t="s">
+      <c r="A131" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" t="s">
+        <v>389</v>
+      </c>
+      <c r="H131" t="s">
+        <v>153</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N131" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="I136" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="J136" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K132" s="1" t="s">
+      <c r="K136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L132" s="1" t="s">
+      <c r="L136" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M132" s="1" t="s">
+      <c r="M136" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N132" s="1" t="s">
+      <c r="N136" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O132" s="1" t="s">
+      <c r="O136" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P132" s="1" t="s">
+      <c r="P136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1" t="s">
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S132" s="1" t="s">
+      <c r="S136" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="133" spans="1:19">
-      <c r="A133" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="5"/>
-      <c r="C133" t="s">
-        <v>273</v>
-      </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" t="s">
-        <v>268</v>
-      </c>
-      <c r="I133" s="6"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O133" s="5"/>
-      <c r="P133" s="5"/>
-      <c r="Q133" s="5"/>
-      <c r="R133" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S133" s="5"/>
-    </row>
-    <row r="134" spans="1:19">
-      <c r="A134" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B134" s="5"/>
-      <c r="C134" t="s">
-        <v>384</v>
-      </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" t="s">
-        <v>268</v>
-      </c>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S134" s="5"/>
-    </row>
-    <row r="135" spans="1:19">
-      <c r="A135" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="5"/>
-    </row>
-    <row r="136" spans="1:19">
-      <c r="A136" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" s="5"/>
-      <c r="C136" t="s">
-        <v>274</v>
-      </c>
-      <c r="H136" t="s">
-        <v>340</v>
-      </c>
-      <c r="I136" s="6"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S136" s="5"/>
     </row>
     <row r="137" spans="1:19">
       <c r="A137" s="5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" t="s">
-        <v>384</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
       <c r="H137" t="s">
-        <v>340</v>
-      </c>
-      <c r="I137" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="I137" s="6"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5" t="s">
         <v>39</v>
@@ -8850,7 +8777,7 @@
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O137" s="5"/>
       <c r="P137" s="5"/>
@@ -8862,47 +8789,80 @@
     </row>
     <row r="138" spans="1:19">
       <c r="A138" s="5" t="s">
-        <v>148</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" t="s">
+        <v>432</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" t="s">
+        <v>268</v>
+      </c>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S138" s="5"/>
     </row>
     <row r="139" spans="1:19">
       <c r="A139" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" t="s">
-        <v>242</v>
-      </c>
-      <c r="H139" t="s">
-        <v>153</v>
-      </c>
-      <c r="K139" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N139" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O139" s="5"/>
-      <c r="P139" s="5"/>
-      <c r="Q139" s="5"/>
-      <c r="R139" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="5"/>
     </row>
     <row r="140" spans="1:19">
       <c r="A140" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B140" s="5"/>
       <c r="C140" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="H140" t="s">
-        <v>153</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="I140" s="6"/>
+      <c r="J140" s="5"/>
       <c r="K140" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
       <c r="N140" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
@@ -8910,157 +8870,149 @@
       <c r="R140" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="145" spans="1:19">
-      <c r="A145" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19">
-      <c r="A146" s="1" t="s">
+      <c r="S140" s="5"/>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="A141" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" t="s">
+        <v>432</v>
+      </c>
+      <c r="H141" t="s">
+        <v>418</v>
+      </c>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S141" s="5"/>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>242</v>
+      </c>
+      <c r="H143" t="s">
+        <v>153</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N143" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="A144" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" t="s">
+        <v>432</v>
+      </c>
+      <c r="H144" t="s">
+        <v>153</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N144" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="H149" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I146" s="1" t="s">
+      <c r="I149" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J146" s="1" t="s">
+      <c r="J149" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K146" s="1" t="s">
+      <c r="K149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L146" s="1" t="s">
+      <c r="L149" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M146" s="1" t="s">
+      <c r="M149" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N146" s="1" t="s">
+      <c r="N149" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O146" s="1" t="s">
+      <c r="O149" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P146" s="1" t="s">
+      <c r="P149" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1" t="s">
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S146" s="1" t="s">
+      <c r="S149" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="147" spans="1:19">
-      <c r="A147" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="5"/>
-      <c r="C147" t="s">
-        <v>273</v>
-      </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" t="s">
-        <v>268</v>
-      </c>
-      <c r="I147" s="6"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S147" s="5"/>
-    </row>
-    <row r="148" spans="1:19">
-      <c r="A148" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B148" s="5"/>
-      <c r="C148" t="s">
-        <v>427</v>
-      </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" t="s">
-        <v>268</v>
-      </c>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S148" s="5"/>
-    </row>
-    <row r="149" spans="1:19">
-      <c r="A149" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-      <c r="R149" s="4"/>
-      <c r="S149" s="5"/>
     </row>
     <row r="150" spans="1:19">
       <c r="A150" s="5" t="s">
@@ -9068,10 +9020,14 @@
       </c>
       <c r="B150" s="5"/>
       <c r="C150" t="s">
-        <v>426</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
       <c r="H150" t="s">
-        <v>430</v>
+        <v>268</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="5"/>
@@ -9097,10 +9053,14 @@
       </c>
       <c r="B151" s="5"/>
       <c r="C151" t="s">
-        <v>427</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
       <c r="H151" t="s">
-        <v>430</v>
+        <v>268</v>
       </c>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
@@ -9124,20 +9084,43 @@
       <c r="A152" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="5"/>
     </row>
     <row r="153" spans="1:19">
       <c r="A153" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B153" s="5"/>
       <c r="C153" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="H153" t="s">
-        <v>153</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="I153" s="6"/>
+      <c r="J153" s="5"/>
       <c r="K153" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
       <c r="N153" s="5" t="s">
         <v>217</v>
       </c>
@@ -9147,20 +9130,26 @@
       <c r="R153" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="S153" s="5"/>
     </row>
     <row r="154" spans="1:19">
       <c r="A154" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B154" s="5"/>
       <c r="C154" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="H154" t="s">
-        <v>153</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
       <c r="K154" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
       <c r="N154" s="5" t="s">
         <v>218</v>
       </c>
@@ -9170,217 +9159,228 @@
       <c r="R154" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="159" spans="1:19">
-      <c r="A159" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19">
-      <c r="A160" s="1" t="s">
+      <c r="S154" s="5"/>
+    </row>
+    <row r="155" spans="1:19">
+      <c r="A155" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
+      <c r="A156" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>242</v>
+      </c>
+      <c r="H156" t="s">
+        <v>153</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N156" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" t="s">
+        <v>383</v>
+      </c>
+      <c r="H157" t="s">
+        <v>153</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N157" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
+      <c r="A162" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
+      <c r="A163" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F163" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="I163" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J160" s="1" t="s">
+      <c r="J163" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K160" s="1" t="s">
+      <c r="K163" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L160" s="1" t="s">
+      <c r="L163" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M160" s="1" t="s">
+      <c r="M163" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N160" s="1" t="s">
+      <c r="N163" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O160" s="1" t="s">
+      <c r="O163" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P160" s="1" t="s">
+      <c r="P163" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1" t="s">
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S160" s="1" t="s">
+      <c r="S163" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
-      <c r="A161" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" s="5"/>
-      <c r="C161" t="s">
-        <v>448</v>
-      </c>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" t="s">
-        <v>268</v>
-      </c>
-      <c r="I161" s="6"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L161" s="5"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S161" s="5"/>
-    </row>
-    <row r="162" spans="1:19">
-      <c r="A162" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B162" s="5"/>
-      <c r="C162" t="s">
-        <v>449</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" t="s">
-        <v>268</v>
-      </c>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L162" s="5"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S162" s="5"/>
-    </row>
-    <row r="163" spans="1:19">
-      <c r="A163" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
-      <c r="S163" s="5"/>
-    </row>
-    <row r="164" spans="1:19" s="5" customFormat="1">
+    <row r="164" spans="1:19">
       <c r="A164" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="H164" s="5" t="s">
-        <v>450</v>
+      <c r="B164" s="5"/>
+      <c r="C164" t="s">
+        <v>272</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" t="s">
+        <v>268</v>
       </c>
       <c r="I164" s="6"/>
+      <c r="J164" s="5"/>
       <c r="K164" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
       <c r="N164" s="5" t="s">
         <v>217</v>
       </c>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
       <c r="R164" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" s="5" customFormat="1">
+      <c r="S164" s="5"/>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>450</v>
-      </c>
+      <c r="B165" s="5"/>
+      <c r="C165" t="s">
+        <v>426</v>
+      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" t="s">
+        <v>268</v>
+      </c>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
       <c r="K165" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
       <c r="N165" s="5" t="s">
         <v>218</v>
       </c>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
       <c r="R165" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="S165" s="5"/>
     </row>
     <row r="166" spans="1:19">
       <c r="A166" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="5"/>
     </row>
     <row r="167" spans="1:19">
       <c r="A167" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B167" s="5"/>
       <c r="C167" t="s">
-        <v>242</v>
+        <v>425</v>
       </c>
       <c r="H167" t="s">
-        <v>153</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="I167" s="6"/>
+      <c r="J167" s="5"/>
       <c r="K167" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
       <c r="N167" s="5" t="s">
         <v>217</v>
       </c>
@@ -9390,20 +9390,26 @@
       <c r="R167" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="S167" s="5"/>
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B168" s="5"/>
       <c r="C168" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="H168" t="s">
-        <v>153</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
       <c r="K168" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
       <c r="N168" s="5" t="s">
         <v>218</v>
       </c>
@@ -9413,268 +9419,563 @@
       <c r="R168" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="172" spans="1:19">
-      <c r="A172" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19">
-      <c r="A173" s="1" t="s">
+      <c r="S168" s="5"/>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="A169" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
+      <c r="A170" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>242</v>
+      </c>
+      <c r="H170" t="s">
+        <v>153</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N170" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
+      <c r="A171" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" t="s">
+        <v>426</v>
+      </c>
+      <c r="H171" t="s">
+        <v>153</v>
+      </c>
+      <c r="K171" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N171" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
+      <c r="A176" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
+      <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G177" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H173" s="1" t="s">
+      <c r="H177" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I173" s="1" t="s">
+      <c r="I177" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J173" s="1" t="s">
+      <c r="J177" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K173" s="1" t="s">
+      <c r="K177" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="L177" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M173" s="1" t="s">
+      <c r="M177" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N173" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O173" s="1" t="s">
+      <c r="O177" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P173" s="1" t="s">
+      <c r="P177" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1" t="s">
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S173" s="1" t="s">
+      <c r="S177" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
-      <c r="A174" s="5" t="s">
+    <row r="178" spans="1:19">
+      <c r="A178" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="5"/>
-      <c r="C174" t="s">
-        <v>273</v>
-      </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" t="s">
+      <c r="B178" s="5"/>
+      <c r="C178" t="s">
+        <v>447</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" t="s">
         <v>268</v>
       </c>
-      <c r="I174" s="6"/>
-      <c r="J174" s="5"/>
-      <c r="K174" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L174" s="5"/>
-      <c r="M174" s="5"/>
-      <c r="N174" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O174" s="5"/>
-      <c r="P174" s="5"/>
-      <c r="Q174" s="5"/>
-      <c r="R174" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S174" s="5"/>
-    </row>
-    <row r="175" spans="1:19">
-      <c r="A175" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B175" s="5"/>
-      <c r="C175" t="s">
-        <v>452</v>
-      </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" t="s">
-        <v>268</v>
-      </c>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5"/>
-      <c r="K175" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L175" s="5"/>
-      <c r="M175" s="5"/>
-      <c r="N175" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O175" s="5"/>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S175" s="5"/>
-    </row>
-    <row r="176" spans="1:19">
-      <c r="A176" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="S176" s="5"/>
-    </row>
-    <row r="177" spans="1:18">
-      <c r="A177" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" t="s">
-        <v>480</v>
-      </c>
-      <c r="H177" t="s">
-        <v>453</v>
-      </c>
-      <c r="K177" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N177" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="R177" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18">
-      <c r="A178" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C178" t="s">
-        <v>483</v>
-      </c>
-      <c r="H178" t="s">
-        <v>453</v>
-      </c>
+      <c r="I178" s="6"/>
+      <c r="J178" s="5"/>
       <c r="K178" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5"/>
       <c r="N178" s="5" t="s">
-        <v>218</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="O178" s="5"/>
+      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
       <c r="R178" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178" s="5"/>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" t="s">
+        <v>448</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" t="s">
+        <v>268</v>
+      </c>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S179" s="5"/>
+    </row>
+    <row r="180" spans="1:19">
+      <c r="A180" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="180" spans="1:18">
-      <c r="A180" s="5" t="s">
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
+      <c r="R180" s="4"/>
+      <c r="S180" s="5"/>
+    </row>
+    <row r="181" spans="1:19" s="5" customFormat="1">
+      <c r="A181" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C180" t="s">
-        <v>481</v>
-      </c>
-      <c r="H180" t="s">
-        <v>478</v>
-      </c>
-      <c r="K180" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N180" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="R180" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18">
-      <c r="A181" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C181" t="s">
-        <v>484</v>
-      </c>
-      <c r="H181" t="s">
-        <v>478</v>
-      </c>
+      <c r="C181" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="I181" s="6"/>
       <c r="K181" s="5" t="s">
         <v>39</v>
       </c>
       <c r="N181" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R181" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:19" s="5" customFormat="1">
       <c r="A182" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N182" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R182" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
+      <c r="A183" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
-      <c r="A183" s="5" t="s">
+    <row r="184" spans="1:19">
+      <c r="A184" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C183" t="s">
-        <v>465</v>
-      </c>
-      <c r="H183" t="s">
-        <v>221</v>
-      </c>
-      <c r="K183" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N183" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="R183" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18">
-      <c r="A184" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="C184" t="s">
-        <v>479</v>
+        <v>242</v>
       </c>
       <c r="H184" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="K184" s="5" t="s">
         <v>39</v>
       </c>
       <c r="N184" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
+      <c r="R184" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
+      <c r="A185" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C185" t="s">
+        <v>441</v>
+      </c>
+      <c r="H185" t="s">
+        <v>153</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N185" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="R184" s="5" t="s">
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
+      <c r="A189" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
+      <c r="A190" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="5"/>
+      <c r="C191" t="s">
+        <v>272</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" t="s">
+        <v>268</v>
+      </c>
+      <c r="I191" s="6"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S191" s="5"/>
+    </row>
+    <row r="192" spans="1:19">
+      <c r="A192" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" t="s">
+        <v>451</v>
+      </c>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" t="s">
+        <v>268</v>
+      </c>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S192" s="5"/>
+    </row>
+    <row r="193" spans="1:19">
+      <c r="A193" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="S193" s="5"/>
+    </row>
+    <row r="194" spans="1:19">
+      <c r="A194" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>479</v>
+      </c>
+      <c r="H194" t="s">
+        <v>452</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N194" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R194" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
+      <c r="A195" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C195" t="s">
+        <v>482</v>
+      </c>
+      <c r="H195" t="s">
+        <v>452</v>
+      </c>
+      <c r="K195" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N195" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R195" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19">
+      <c r="A196" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19">
+      <c r="A197" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s">
+        <v>480</v>
+      </c>
+      <c r="H197" t="s">
+        <v>477</v>
+      </c>
+      <c r="K197" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N197" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R197" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
+      <c r="A198" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C198" t="s">
+        <v>483</v>
+      </c>
+      <c r="H198" t="s">
+        <v>477</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N198" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R198" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19">
+      <c r="A199" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19">
+      <c r="A200" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" t="s">
+        <v>464</v>
+      </c>
+      <c r="H200" t="s">
+        <v>221</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N200" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R200" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19">
+      <c r="A201" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C201" t="s">
+        <v>478</v>
+      </c>
+      <c r="H201" t="s">
+        <v>221</v>
+      </c>
+      <c r="K201" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N201" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R201" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -9718,10 +10019,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9830,7 +10131,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
         <v>220</v>
@@ -9838,7 +10139,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
         <v>221</v>
@@ -9846,7 +10147,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
         <v>239</v>
@@ -9854,7 +10155,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s">
         <v>240</v>
@@ -9862,7 +10163,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" t="s">
         <v>247</v>
@@ -9870,66 +10171,66 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F29" t="str">
         <f>A29&amp;","</f>
@@ -9938,10 +10239,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F30" t="str">
         <f>F29&amp;A30&amp;","</f>
@@ -9950,10 +10251,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F31" t="str">
         <f>F30&amp;A31&amp;","</f>
@@ -9962,10 +10263,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F32" t="str">
         <f>F31&amp;A32&amp;","</f>
@@ -9974,10 +10275,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F33" t="str">
         <f>F32&amp;A33&amp;","</f>
@@ -9986,10 +10287,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F34" t="str">
         <f>F33&amp;A34&amp;","</f>
@@ -9998,15 +10299,15 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" t="s">
         <v>286</v>
-      </c>
-      <c r="B35" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s">
         <v>239</v>
@@ -10014,7 +10315,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s">
         <v>220</v>
@@ -10026,7 +10327,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s">
         <v>240</v>
@@ -10038,10 +10339,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F39" t="str">
         <f>F38&amp;A39&amp;","</f>
@@ -10050,10 +10351,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F40" t="str">
         <f>F39&amp;A40&amp;","</f>
@@ -10062,10 +10363,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F41" t="str">
         <f>F40&amp;A41&amp;","</f>
@@ -10074,10 +10375,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F42" t="str">
         <f>F41&amp;A42&amp;","</f>
@@ -10086,47 +10387,47 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>212</v>
@@ -10134,23 +10435,23 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s">
         <v>220</v>
@@ -10158,7 +10459,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s">
         <v>221</v>
@@ -10166,7 +10467,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s">
         <v>239</v>
@@ -10174,7 +10475,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s">
         <v>240</v>
@@ -10182,218 +10483,218 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -10404,10 +10705,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T134"/>
+  <dimension ref="A1:T135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10441,26 +10742,26 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -10702,1025 +11003,1033 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>274</v>
+        <v>539</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>523</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>523</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>521</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="str">
-        <f>A25&amp;","</f>
-        <v>Cooking,</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" t="str">
-        <f>F25&amp;A26&amp;","</f>
-        <v>Cooking,Lighting,</v>
+        <f>A26&amp;","</f>
+        <v>Cooking,</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" ref="F27:F30" si="2">F26&amp;A27&amp;","</f>
-        <v>Cooking,Lighting,Other,</v>
+        <f>F26&amp;A27&amp;","</f>
+        <v>Cooking,Lighting,</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" ref="F28:F31" si="2">F27&amp;A28&amp;","</f>
+        <v>Cooking,Lighting,Other,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
         <v>183</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>183</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="2"/>
         <v>Cooking,Lighting,Other,Refrigeration,</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
         <v>182</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>182</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="2"/>
         <v>Cooking,Lighting,Other,Refrigeration,Space Heating,</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
         <v>185</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>185</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="2"/>
         <v>Cooking,Lighting,Other,Refrigeration,Space Heating,Water Heating,</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>209</v>
-      </c>
-      <c r="B31" t="s">
-        <v>178</v>
-      </c>
-    </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" t="str">
-        <f>A32</f>
-        <v>FreightRoad</v>
-      </c>
-      <c r="F32" t="str">
-        <f>A32&amp;","</f>
-        <v>FreightRoad,</v>
+        <v>209</v>
+      </c>
+      <c r="B32" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" ref="B33:B35" si="3">A33</f>
-        <v>FreightRail</v>
+        <f>A33</f>
+        <v>FreightRoad</v>
       </c>
       <c r="F33" t="str">
-        <f>F32&amp;A33&amp;","</f>
-        <v>FreightRoad,FreightRail,</v>
+        <f>A33&amp;","</f>
+        <v>FreightRoad,</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="B34" t="str">
+        <f t="shared" ref="B34:B36" si="3">A34</f>
+        <v>FreightRail</v>
+      </c>
+      <c r="F34" t="str">
+        <f>F33&amp;A34&amp;","</f>
+        <v>FreightRoad,FreightRail,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>312</v>
+      </c>
+      <c r="B35" t="str">
         <f t="shared" si="3"/>
         <v>PassengerPriv</v>
       </c>
-      <c r="F34" t="str">
-        <f t="shared" ref="F34:F35" si="4">F33&amp;A34&amp;","</f>
+      <c r="F35" t="str">
+        <f t="shared" ref="F35:F36" si="4">F34&amp;A35&amp;","</f>
         <v>FreightRoad,FreightRail,PassengerPriv,</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>518</v>
-      </c>
-      <c r="B35" t="str">
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" t="str">
         <f t="shared" si="3"/>
         <v>PassengerPub</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F36" t="str">
         <f t="shared" si="4"/>
         <v>FreightRoad,FreightRail,PassengerPriv,PassengerPub,</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>201</v>
-      </c>
-      <c r="B36" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" t="str">
-        <f>A36&amp;","</f>
-        <v>Electrolysers,</v>
-      </c>
-    </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F37" t="str">
-        <f>F36&amp;A37&amp;","</f>
-        <v>Electrolysers,FuelCells,</v>
+        <f>A37&amp;","</f>
+        <v>Electrolysers,</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" ref="F38:F49" si="5">F37&amp;A38&amp;","</f>
-        <v>Electrolysers,FuelCells,Aluminium,</v>
+        <f>F37&amp;A38&amp;","</f>
+        <v>Electrolysers,FuelCells,</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F39" t="str">
+        <f t="shared" ref="F39:F50" si="5">F38&amp;A39&amp;","</f>
+        <v>Electrolysers,FuelCells,Aluminium,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="5"/>
         <v>Electrolysers,FuelCells,Aluminium,Chemicals,</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>203</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>203</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F41" t="str">
         <f t="shared" si="5"/>
         <v>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>204</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>204</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="5"/>
         <v>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>328</v>
-      </c>
-      <c r="B42" t="s">
-        <v>328</v>
-      </c>
-      <c r="F42" t="str">
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>327</v>
+      </c>
+      <c r="B43" t="s">
+        <v>327</v>
+      </c>
+      <c r="F43" t="str">
         <f t="shared" si="5"/>
         <v>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>329</v>
-      </c>
-      <c r="B43" t="s">
-        <v>329</v>
-      </c>
-      <c r="F43" t="str">
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" t="s">
+        <v>328</v>
+      </c>
+      <c r="F44" t="str">
         <f t="shared" si="5"/>
         <v>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,Iron_Steel,</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>330</v>
-      </c>
-      <c r="B44" t="s">
-        <v>330</v>
-      </c>
-      <c r="F44" t="str">
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" t="s">
+        <v>329</v>
+      </c>
+      <c r="F45" t="str">
         <f t="shared" si="5"/>
         <v>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,Iron_Steel,Mining,</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>331</v>
-      </c>
-      <c r="B45" t="s">
-        <v>331</v>
-      </c>
-      <c r="F45" t="str">
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" t="s">
+        <v>330</v>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="5"/>
         <v>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,Iron_Steel,Mining,PNFMetals,</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>332</v>
-      </c>
-      <c r="B46" t="s">
-        <v>332</v>
-      </c>
-      <c r="F46" t="str">
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>331</v>
+      </c>
+      <c r="B47" t="s">
+        <v>331</v>
+      </c>
+      <c r="F47" t="str">
         <f t="shared" si="5"/>
         <v>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,Iron_Steel,Mining,PNFMetals,NMMProducts,</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
         <v>205</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>205</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F48" t="str">
         <f t="shared" si="5"/>
         <v>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,Iron_Steel,Mining,PNFMetals,NMMProducts,IndOther,</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
         <v>206</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>206</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F49" t="str">
         <f t="shared" si="5"/>
         <v>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,Iron_Steel,Mining,PNFMetals,NMMProducts,IndOther,PGM,</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>333</v>
-      </c>
-      <c r="B49" t="s">
-        <v>333</v>
-      </c>
-      <c r="F49" t="str">
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" t="s">
+        <v>332</v>
+      </c>
+      <c r="F50" t="str">
         <f t="shared" si="5"/>
         <v>Electrolysers,FuelCells,Aluminium,Chemicals,Ammonia,FerroAlloys,Food_Bev_Tob,Iron_Steel,Mining,PNFMetals,NMMProducts,IndOther,PGM,Pulp_Paper,</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>356</v>
-      </c>
-      <c r="B50" t="s">
-        <v>356</v>
-      </c>
-    </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>363</v>
+      </c>
+      <c r="B55" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>357</v>
+      </c>
+      <c r="B56" t="s">
         <v>358</v>
-      </c>
-      <c r="B55" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F56" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
+      </c>
+      <c r="F57" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>369</v>
-      </c>
-      <c r="B60" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B61" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B62" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>375</v>
+      <c r="A63" t="s">
+        <v>372</v>
+      </c>
+      <c r="B63" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="5" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="5" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="5" t="s">
-        <v>181</v>
+        <v>384</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>181</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="5" t="s">
-        <v>431</v>
+        <v>184</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>431</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="5" t="s">
-        <v>186</v>
+        <v>431</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>186</v>
+        <v>431</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="5" t="s">
-        <v>435</v>
+        <v>324</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>435</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="5" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="5" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -11741,10 +12050,10 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G3" t="str">
         <f>C3&amp;","</f>
@@ -11753,10 +12062,10 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G4" t="str">
         <f>G3&amp;C4&amp;","</f>
@@ -11765,10 +12074,10 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" t="s">
         <v>293</v>
-      </c>
-      <c r="C5" t="s">
-        <v>294</v>
       </c>
       <c r="G5" t="str">
         <f>G4&amp;C5&amp;","</f>
@@ -11777,18 +12086,18 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G7" t="str">
         <f>G5&amp;C7&amp;","</f>
@@ -11797,10 +12106,10 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G8" t="str">
         <f>G7&amp;C8&amp;","</f>
@@ -11809,10 +12118,10 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G9" t="str">
         <f>G8&amp;C9&amp;","</f>
@@ -11821,10 +12130,10 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G10" t="str">
         <f>G9&amp;C10&amp;","</f>
@@ -11833,10 +12142,10 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G11" t="str">
         <f>G10&amp;C11&amp;","</f>
@@ -11845,10 +12154,10 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" t="s">
         <v>300</v>
-      </c>
-      <c r="C12" t="s">
-        <v>301</v>
       </c>
       <c r="G12" t="str">
         <f>G11&amp;C12&amp;","</f>
@@ -11857,18 +12166,18 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G14" t="str">
         <f>G12&amp;C14&amp;","</f>
@@ -11877,10 +12186,10 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G15" t="str">
         <f>G14&amp;C15&amp;","</f>
@@ -11889,10 +12198,10 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G16" t="str">
         <f>G15&amp;C16&amp;","</f>
@@ -11901,10 +12210,10 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G17" t="str">
         <f>G16&amp;C17&amp;","</f>
@@ -11913,10 +12222,10 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G18" t="str">
         <f>G17&amp;C18&amp;","</f>
@@ -11925,10 +12234,10 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="s">
         <v>307</v>
-      </c>
-      <c r="C19" t="s">
-        <v>308</v>
       </c>
       <c r="G19" t="str">
         <f>G18&amp;C19&amp;","</f>
@@ -11937,18 +12246,18 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G21" t="str">
         <f>G19&amp;C21&amp;","</f>
@@ -11957,10 +12266,10 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G22" t="str">
         <f>G21&amp;C22&amp;","</f>
@@ -11969,10 +12278,10 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G23" t="str">
         <f>G22&amp;C23&amp;","</f>
